--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3224.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3224.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357659080665078</v>
+        <v>1.43407928943634</v>
       </c>
       <c r="B1">
-        <v>3.06474020277081</v>
+        <v>1.634546637535095</v>
       </c>
       <c r="C1">
-        <v>4.658063253427951</v>
+        <v>2.033814191818237</v>
       </c>
       <c r="D1">
-        <v>2.902171517207683</v>
+        <v>2.103904247283936</v>
       </c>
       <c r="E1">
-        <v>1.257449781314068</v>
+        <v>1.54181444644928</v>
       </c>
     </row>
   </sheetData>
